--- a/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>-3,44%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,23%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 4,72</t>
+          <t>-5,16; 4,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,11</t>
+          <t>-5,79; 3,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,35</t>
+          <t>-7,27; 1,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 2,2</t>
+          <t>-2,27; 7,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,77</t>
+          <t>-4,69; 3,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 23,95</t>
+          <t>-4,52; 3,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 36,32</t>
+          <t>-6,81; 1,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 49,16</t>
+          <t>-6,47; 6,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 17,8</t>
+          <t>-7,02; 4,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 36,16</t>
+          <t>-8,47; 2,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 9,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 4,45</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 3,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 1,72</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 9,01</t>
+          <t>-9,48; 0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 5,96</t>
+          <t>-8,06; 2,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 7,25</t>
+          <t>-7,12; 2,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 6,49</t>
+          <t>-7,48; 3,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 9,34</t>
+          <t>-12,48; -2,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 62,88</t>
+          <t>-8,87; 4,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 37,95</t>
+          <t>-6,41; 6,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 55,64</t>
+          <t>-10,97; 0,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 61,6</t>
+          <t>-9,47; 3,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 88,53</t>
+          <t>-8,24; 3,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 3,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,41; -2,93</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 5,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 7,36</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>65,06%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,4%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-8,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 16,21</t>
+          <t>-16,81; -0,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 17,27</t>
+          <t>-16,25; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 18,75</t>
+          <t>-18,33; -1,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 7,72</t>
+          <t>-7,53; 15,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-6,03; 18,46</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 192,14</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 180,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 213,75</t>
+          <t>-18,56; -0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 68,42</t>
+          <t>-18,3; 2,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,42; -1,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 22,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 25,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-3,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>-4,26%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-2,52%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,06</t>
+          <t>-6,19; 0,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,49</t>
+          <t>-5,83; 0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,5</t>
+          <t>-6,46; -0,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,75</t>
+          <t>-2,61; 4,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,52</t>
+          <t>-5,48; 0,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 35,19</t>
+          <t>-4,54; 2,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 33,68</t>
+          <t>-5,62; 1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 44,71</t>
+          <t>-7,49; 0,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 21,72</t>
+          <t>-7,01; 1,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 33,32</t>
+          <t>-7,66; -0,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 5,13</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 0,89</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 2,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 1,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-3,44%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-3,23%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.07496624723590806</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.576074402605533</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.805193377906856</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.016278974378016</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6021124774846287</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.9651717672863103</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-2.739264528251573</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.0009648359856112476</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.03192815753015154</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.03396329373709536</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.02393374871721237</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.006872410680450701</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.01145253961198493</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.03265583517595832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 4,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 3,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,27; 1,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 7,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 3,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 3,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 1,4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 6,25</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 4,91</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 2,27</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 9,46</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 4,45</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 3,64</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 1,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.158199412338226</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.092156499550054</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.358373139885697</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.346503245539443</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.23317043001753</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.515580581804098</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-6.796426785238545</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.06468193027982894</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.08627488168294888</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.0859137822924311</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.02739562164858511</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.0582476972409529</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.05299703715860083</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.07930449080169177</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.684364786402043</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.443177373039105</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.009572761974744</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.073663947731667</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.807421644534981</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.998435405095437</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.350898561506835</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.06250675346349942</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.03071395471307068</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.02538495283296072</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.08782481571821606</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.04374229232369853</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.03642507899058033</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.01579592951044567</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,51</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,26</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-5,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-3,16%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-3,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-2,62%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-8,02%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 0,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 2,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 2,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 3,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,48; -2,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 4,73</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,41; 6,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,97; 0,71</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 3,16</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; 3,27</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 3,63</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; -2,93</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 5,66</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 7,36</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.663983875972288</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.522932913068342</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.632672802656366</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.011484855036461</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-7.408364624947672</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-1.6345957059545</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4210749180303619</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.05599567692425261</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.01874517268902038</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.03138606645272631</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.02325438975377877</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.08170629386286356</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.01892722122604187</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.004847909846755185</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-9,36%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-8,09%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-11,32%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,08%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.477661634731707</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.904187117516523</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.221640028686329</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.028040177801359</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-12.5637046642452</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-8.872757032578372</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-6.430516563100515</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1096576664156088</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.0826392130369305</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.08415271094023041</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.07917721308956992</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1356484057668785</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.09965074772126277</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.0720945763987615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,81; -0,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 2,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; -1,19</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; 15,87</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 18,46</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,56; -0,19</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-18,3; 2,94</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-20,42; -1,35</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 22,58</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 25,97</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.5876342307650977</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.753265413352621</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.615648853113593</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.150410661269158</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-2.742390091420355</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.72762012555762</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>6.155449052284601</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.007090055169129693</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.04736343132182232</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.03238835550460029</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.0371087271809325</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.03133283427779966</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.05655820913263696</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.07403821829991156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-3,59%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-3,01%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-4,26%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-2,81%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-1,37%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-2,52%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-8.185734673778278</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.092253123337622</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-10.28019694279452</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.057742342127067</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.648644965526305</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.09364535053811084</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.09289482176213582</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1181790994396328</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.02501748894862017</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.05629075285005224</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 0,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 0,81</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; -0,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 4,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 0,79</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 2,44</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 1,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 0,16</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 1,0</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-7,66; -0,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 5,13</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 0,89</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 2,96</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 1,72</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.8134954324821</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.05115654032995</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.83576942196789</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.799947990001739</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-5.795284997981813</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1856055147171118</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2001573461442188</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.209937992157824</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.08767683830738959</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.06486538188914108</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.04349504891863711</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4777589398862479</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.529529485751409</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.86979164550675</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>19.66461876637397</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>-0.001854933380356066</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.006115447179908177</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.01846093151382119</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.2089299211207569</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.2771171824232534</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.910278639666908</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.82965039490497</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.643216409950756</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4605286140713205</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.648543174698426</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.164143242197968</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-2.122776962915141</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.03588336557906713</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.03464805130097008</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.04355666741313426</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.00542416039517749</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.03001840246997783</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.01373183005563061</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.02508887199131106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.190796589037869</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.378579647359352</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.55643981261427</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.624235143366879</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.767669736473004</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.542805899298934</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-5.583120919642907</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07492965404453723</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.07628857225005763</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.07704449348391423</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.03001522355007245</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.06457955672217781</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.05227462582047675</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.0643359869314518</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.1271910493278064</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6008203917247279</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.4469940983451139</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.992737723683636</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6407418276854924</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.43936686976499</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.354162839011456</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.001595213793200474</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.007613402544056529</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.005531742445277384</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.04846425797185166</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.007185346380206951</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.02962714073619985</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.01628695673515662</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
